--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/3.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/3.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2644981960904675</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.603955276828545</v>
+        <v>-1.598396628301672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.147856387309101</v>
+        <v>0.1533339738512274</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2442223316921725</v>
+        <v>-0.2456625591881627</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2688555016735297</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.538257292724576</v>
+        <v>-1.530016515615006</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0977648027928279</v>
+        <v>0.1013598624658787</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2476206389750607</v>
+        <v>-0.2490104978591692</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2753508643520824</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.496175891516602</v>
+        <v>-1.484166125621078</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09386438341024479</v>
+        <v>0.09695103490711544</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2574204820242788</v>
+        <v>-0.2589220962659997</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.27834201725758</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.565520090915065</v>
+        <v>-1.553692124228051</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1212932406180306</v>
+        <v>0.1236574173382242</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2353480118862793</v>
+        <v>-0.2355148579131371</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2789395126686767</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.598439126817947</v>
+        <v>-1.588719558743915</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1075756639758951</v>
+        <v>0.1080872201903178</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.260913230454445</v>
+        <v>-0.261363399923137</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2799186976649987</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.484642266405271</v>
+        <v>-1.475728596121346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1217339659719948</v>
+        <v>0.1206872432563298</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2528259202092021</v>
+        <v>-0.2531407240334622</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2830901023754839</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.267884093210954</v>
+        <v>-1.261947680094968</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1599700384666311</v>
+        <v>0.1566882085987192</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2585175733518254</v>
+        <v>-0.2593329152566591</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2865584290034403</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.007478369782968</v>
+        <v>-1.005788660256252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1827760015151567</v>
+        <v>0.1779185785068228</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2554450880270465</v>
+        <v>-0.2567483758594834</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2867586871645916</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5932547757641149</v>
+        <v>-0.5937852202079932</v>
       </c>
       <c r="F10" t="n">
-        <v>0.172365439046874</v>
+        <v>0.1665667526040022</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1647532542959434</v>
+        <v>-0.1647013116649405</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2783984809672813</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2178181609323535</v>
+        <v>-0.2215989548617178</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1421411238796582</v>
+        <v>0.1364982653297952</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1284028567086253</v>
+        <v>-0.1291379236382728</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2539103545944414</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2444602368598094</v>
+        <v>0.239191994860816</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1051737107967902</v>
+        <v>0.1022869597283248</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03855312320741817</v>
+        <v>-0.0388332986110097</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2055448689576046</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7713300833136674</v>
+        <v>0.762795751637975</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005996111702434744</v>
+        <v>-0.005673437782568103</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05541581833423289</v>
+        <v>0.05489796604332496</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1307247642385604</v>
       </c>
       <c r="E14" t="n">
-        <v>1.317536754672704</v>
+        <v>1.307072675554297</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2291983191793575</v>
+        <v>-0.230504755050037</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1595891258392763</v>
+        <v>0.1587580437432295</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.03341916192381689</v>
       </c>
       <c r="E15" t="n">
-        <v>1.879341955523831</v>
+        <v>1.868399374592548</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4410581448681875</v>
+        <v>-0.4421363479662784</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2931651105302166</v>
+        <v>0.2923954151799005</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.07507365050909721</v>
       </c>
       <c r="E16" t="n">
-        <v>2.352756538599196</v>
+        <v>2.339633941184912</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6668228554745878</v>
+        <v>-0.6661350091185793</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4371721199380165</v>
+        <v>0.4367896332915404</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1837941827450409</v>
       </c>
       <c r="E17" t="n">
-        <v>2.809319672961916</v>
+        <v>2.794235847722492</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8819739551460574</v>
+        <v>-0.8785882400161397</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5566433192829813</v>
+        <v>0.555595022548195</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.289393451953908</v>
       </c>
       <c r="E18" t="n">
-        <v>3.232526194106032</v>
+        <v>3.217399870350333</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.209941301317633</v>
+        <v>-1.206722432214573</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6783370336272226</v>
+        <v>0.6769125463224456</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3931444691567602</v>
       </c>
       <c r="E19" t="n">
-        <v>3.606735074023179</v>
+        <v>3.591805502657642</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.510031194831851</v>
+        <v>-1.505220205387596</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8391687334226057</v>
+        <v>0.8379913671198728</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4961343543789504</v>
       </c>
       <c r="E20" t="n">
-        <v>3.73490272901333</v>
+        <v>3.715030737606909</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.84543342032289</v>
+        <v>-1.841194586829228</v>
       </c>
       <c r="G20" t="n">
-        <v>1.015018149654318</v>
+        <v>1.01433030329831</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5988188521993619</v>
       </c>
       <c r="E21" t="n">
-        <v>3.985119826669136</v>
+        <v>3.964969233878245</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.082357139489752</v>
+        <v>-2.077568973322755</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182416657223768</v>
+        <v>1.182312771961762</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6999700177546887</v>
       </c>
       <c r="E22" t="n">
-        <v>4.190179889753948</v>
+        <v>4.169813656343438</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.376505110821061</v>
+        <v>-2.374103157641956</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322754628059816</v>
+        <v>1.322491766866559</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7971939646899163</v>
       </c>
       <c r="E23" t="n">
-        <v>4.414359563105198</v>
+        <v>4.395490221879045</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.509251587435075</v>
+        <v>-2.505776153215243</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49302729454476</v>
+        <v>1.493944947692479</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.887157041474731</v>
       </c>
       <c r="E24" t="n">
-        <v>4.542023531976533</v>
+        <v>4.523350943140543</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.624230536207848</v>
+        <v>-2.620514277062457</v>
       </c>
       <c r="G24" t="n">
-        <v>1.596829133537177</v>
+        <v>1.597877430271963</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9674767183644295</v>
       </c>
       <c r="E25" t="n">
-        <v>4.681799577986276</v>
+        <v>4.665111827262247</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818547131780221</v>
+        <v>-2.817535037485225</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659996094894095</v>
+        <v>1.661082168087792</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.034967377159024</v>
       </c>
       <c r="E26" t="n">
-        <v>4.793613174306113</v>
+        <v>4.779237657671274</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908308720210635</v>
+        <v>-2.907568144214063</v>
       </c>
       <c r="G26" t="n">
-        <v>1.702675623368163</v>
+        <v>1.704446394879626</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.08615676324795</v>
       </c>
       <c r="E27" t="n">
-        <v>4.90108247785116</v>
+        <v>4.890834039352372</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.979946265468833</v>
+        <v>-2.980755311297182</v>
       </c>
       <c r="G27" t="n">
-        <v>1.752444533964569</v>
+        <v>1.755137680681115</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.118750829314783</v>
       </c>
       <c r="E28" t="n">
-        <v>4.899648546431655</v>
+        <v>4.890651453134301</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.067808799829398</v>
+        <v>-3.070505094584186</v>
       </c>
       <c r="G28" t="n">
-        <v>1.792632390169619</v>
+        <v>1.796559567877264</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.133191443857912</v>
       </c>
       <c r="E29" t="n">
-        <v>4.906940977020642</v>
+        <v>4.900202601162354</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.080669323059985</v>
+        <v>-3.084633490216981</v>
       </c>
       <c r="G29" t="n">
-        <v>1.72449152838939</v>
+        <v>1.727466424528649</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.130029186090672</v>
       </c>
       <c r="E30" t="n">
-        <v>4.848480332836413</v>
+        <v>4.841878896641678</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.070035249876478</v>
+        <v>-3.074614071500342</v>
       </c>
       <c r="G30" t="n">
-        <v>1.688189925394833</v>
+        <v>1.691394628325801</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.110369743594195</v>
       </c>
       <c r="E31" t="n">
-        <v>4.722357328684831</v>
+        <v>4.716926962716344</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.057252640592395</v>
+        <v>-3.063806856213491</v>
       </c>
       <c r="G31" t="n">
-        <v>1.629365682793583</v>
+        <v>1.632674270986558</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.075664268551993</v>
       </c>
       <c r="E32" t="n">
-        <v>4.640390282943098</v>
+        <v>4.637171413840038</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.018048546338159</v>
+        <v>-3.025073393676524</v>
       </c>
       <c r="G32" t="n">
-        <v>1.591512096945423</v>
+        <v>1.59529603891303</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.028214920892381</v>
       </c>
       <c r="E33" t="n">
-        <v>4.559879204888568</v>
+        <v>4.560315208185168</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.948732679283879</v>
+        <v>-2.956098301762006</v>
       </c>
       <c r="G33" t="n">
-        <v>1.561124083789592</v>
+        <v>1.566578060044899</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9710828381990432</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357868016841716</v>
+        <v>4.35746191990842</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.8758587420059</v>
+        <v>-2.88428053131442</v>
       </c>
       <c r="G34" t="n">
-        <v>1.510254933827397</v>
+        <v>1.516480179452141</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9072534418807029</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132706155558775</v>
+        <v>4.132868279528268</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.843318257701691</v>
+        <v>-2.853017363527146</v>
       </c>
       <c r="G35" t="n">
-        <v>1.389773214206557</v>
+        <v>1.395124879218979</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8386890531594919</v>
       </c>
       <c r="E36" t="n">
-        <v>3.980326938444776</v>
+        <v>3.982296036365523</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.817554712724241</v>
+        <v>-2.828043976148589</v>
       </c>
       <c r="G36" t="n">
-        <v>1.362544257427176</v>
+        <v>1.36909532501003</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7667264064710108</v>
       </c>
       <c r="E37" t="n">
-        <v>3.783609176702859</v>
+        <v>3.786741474754247</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.753823465512337</v>
+        <v>-2.76425921228656</v>
       </c>
       <c r="G37" t="n">
-        <v>1.275965335660032</v>
+        <v>1.281773466217631</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6925012542910173</v>
       </c>
       <c r="E38" t="n">
-        <v>3.711667058744689</v>
+        <v>3.717971005325499</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.721730002638576</v>
+        <v>-2.733441491910614</v>
       </c>
       <c r="G38" t="n">
-        <v>1.231932150741645</v>
+        <v>1.239076623533229</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6169121376589858</v>
       </c>
       <c r="E39" t="n">
-        <v>3.500619426922451</v>
+        <v>3.508204625067998</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.738269008555644</v>
+        <v>-2.751271193507148</v>
       </c>
       <c r="G39" t="n">
-        <v>1.156672000475774</v>
+        <v>1.163844805611541</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5405587252297039</v>
       </c>
       <c r="E40" t="n">
-        <v>3.254477464771691</v>
+        <v>3.262459315735807</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.702670992108307</v>
+        <v>-2.716884384773652</v>
       </c>
       <c r="G40" t="n">
-        <v>1.092522851187164</v>
+        <v>1.099723988667115</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4649271318516834</v>
       </c>
       <c r="E41" t="n">
-        <v>3.081917748503497</v>
+        <v>3.090714941372447</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.642071255938231</v>
+        <v>-2.656010769276469</v>
       </c>
       <c r="G41" t="n">
-        <v>1.060313697907988</v>
+        <v>1.067895748015294</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3908287763156597</v>
       </c>
       <c r="E42" t="n">
-        <v>2.965797635867781</v>
+        <v>2.977672036118874</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.610965490063086</v>
+        <v>-2.625258370694057</v>
       </c>
       <c r="G42" t="n">
-        <v>0.976483013526635</v>
+        <v>0.983638504452068</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3183543440728774</v>
       </c>
       <c r="E43" t="n">
-        <v>2.831206408843602</v>
+        <v>2.844820100223732</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.593455314348177</v>
+        <v>-2.608778390494039</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9244506634337982</v>
+        <v>0.9315054171354679</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.24629332226009</v>
       </c>
       <c r="E44" t="n">
-        <v>2.700904383924967</v>
+        <v>2.716743738342617</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.522286039778566</v>
+        <v>-2.536787477943109</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8601157798888752</v>
+        <v>0.8675782045429618</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1737608594129215</v>
       </c>
       <c r="E45" t="n">
-        <v>2.504369208401121</v>
+        <v>2.52014875009216</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.457123222175839</v>
+        <v>-2.471275228095454</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8297655431919554</v>
+        <v>0.8377143397545238</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1002953956068636</v>
       </c>
       <c r="E46" t="n">
-        <v>2.377534747606711</v>
+        <v>2.394641187417007</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.41688735838759</v>
+        <v>-2.432108910300129</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7665497872422772</v>
+        <v>0.7743695142368989</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.02625550149866782</v>
       </c>
       <c r="E47" t="n">
-        <v>2.214431738219292</v>
+        <v>2.231549196163437</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.283124065421215</v>
+        <v>-2.296346613049701</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7102518453307154</v>
+        <v>0.7180243517516982</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.0475172311934384</v>
       </c>
       <c r="E48" t="n">
-        <v>2.125342255953673</v>
+        <v>2.144076231535394</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.241386587391246</v>
+        <v>-2.255861267230727</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6614163280732402</v>
+        <v>0.6693729947314153</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1186865811962136</v>
       </c>
       <c r="E49" t="n">
-        <v>1.971634566701297</v>
+        <v>1.991007594046265</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.189385717680835</v>
+        <v>-2.204017799432446</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5869195770812</v>
+        <v>0.5950320716323838</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1850263423106795</v>
       </c>
       <c r="E50" t="n">
-        <v>1.878051259844364</v>
+        <v>1.897825662065265</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.141939272297908</v>
+        <v>-2.156598112374581</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5304579371810231</v>
+        <v>0.5382241475255206</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2452696894286848</v>
       </c>
       <c r="E51" t="n">
-        <v>1.754161788825908</v>
+        <v>1.773835453823046</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.091662740534881</v>
+        <v>-2.106688327066818</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4855999662430748</v>
+        <v>0.4931647021400459</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2993412336699822</v>
       </c>
       <c r="E52" t="n">
-        <v>1.642515038532929</v>
+        <v>1.662075374153333</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.975358467661974</v>
+        <v>-1.987799514796734</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4499043606102178</v>
+        <v>0.4576028881324994</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.347543829694219</v>
       </c>
       <c r="E53" t="n">
-        <v>1.598075756681247</v>
+        <v>1.619321866780564</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.915738558394907</v>
+        <v>-1.928272472657824</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3793788598612192</v>
+        <v>0.3860621450502619</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3906011724686571</v>
       </c>
       <c r="E54" t="n">
-        <v>1.553148528901962</v>
+        <v>1.576713169166954</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.904809356626155</v>
+        <v>-1.918098800067297</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3451124635905032</v>
+        <v>0.3517170478234808</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4293720654520449</v>
       </c>
       <c r="E55" t="n">
-        <v>1.497122892298385</v>
+        <v>1.522152944365308</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.840476047100354</v>
+        <v>-1.852740804093529</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3179480415950959</v>
+        <v>0.3249177982642154</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4648201480828449</v>
       </c>
       <c r="E56" t="n">
-        <v>1.438626045674366</v>
+        <v>1.464602083233191</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.779561507106017</v>
+        <v>-1.790542651505771</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2120952556876247</v>
+        <v>0.2168236091280119</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4976338806781229</v>
       </c>
       <c r="E57" t="n">
-        <v>1.446798352952159</v>
+        <v>1.47491033445859</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.777150109812185</v>
+        <v>-1.788212316196686</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2123187664028494</v>
+        <v>0.2178593137098278</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5282680273123981</v>
       </c>
       <c r="E58" t="n">
-        <v>1.430500958970212</v>
+        <v>1.460548983995842</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.76256210059597</v>
+        <v>-1.773244968372238</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2075856909050982</v>
+        <v>0.2134693743805202</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5567509526647086</v>
       </c>
       <c r="E59" t="n">
-        <v>1.417797050642194</v>
+        <v>1.449269562972601</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.726993203502378</v>
+        <v>-1.736335793996858</v>
       </c>
       <c r="G59" t="n">
-        <v>0.134387505688131</v>
+        <v>0.1391992821419472</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5837225915577142</v>
       </c>
       <c r="E60" t="n">
-        <v>1.448550236234167</v>
+        <v>1.483258931877968</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.758771862551878</v>
+        <v>-1.768954192247572</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1139866438569528</v>
+        <v>0.119054985427541</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6101136436624115</v>
       </c>
       <c r="E61" t="n">
-        <v>1.444972490771451</v>
+        <v>1.481439365773745</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.777082426989969</v>
+        <v>-1.787355262785138</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1257272524827346</v>
+        <v>0.1316660266274021</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6364236361228578</v>
       </c>
       <c r="E62" t="n">
-        <v>1.453988472298261</v>
+        <v>1.492928131340119</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.820378183950026</v>
+        <v>-1.83139553078957</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0391798110980163</v>
+        <v>0.04374604056890959</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6623636254815963</v>
       </c>
       <c r="E63" t="n">
-        <v>1.439331206240709</v>
+        <v>1.479962935837965</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.782271181023336</v>
+        <v>-1.791843578309527</v>
       </c>
       <c r="G63" t="n">
-        <v>0.005169979944072335</v>
+        <v>0.009421405590705492</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6875817638542128</v>
       </c>
       <c r="E64" t="n">
-        <v>1.439886834990528</v>
+        <v>1.481861202898253</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.809703973278925</v>
+        <v>-1.819409375180866</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02500396661126185</v>
+        <v>-0.02085170416927063</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7112993730773812</v>
       </c>
       <c r="E65" t="n">
-        <v>1.44815515743472</v>
+        <v>1.49285730047966</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.835162158546843</v>
+        <v>-1.844882513630435</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02839597781766483</v>
+        <v>-0.02388483901601706</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7327869606592341</v>
       </c>
       <c r="E66" t="n">
-        <v>1.412190394532121</v>
+        <v>1.456179506915111</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.8409671410662</v>
+        <v>-1.849920948837719</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03676818552386319</v>
+        <v>-0.03223658447363851</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7512545259498884</v>
       </c>
       <c r="E67" t="n">
-        <v>1.376797000570554</v>
+        <v>1.422138195378741</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.853300367891151</v>
+        <v>-1.861478184235869</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.0557839105282968</v>
+        <v>-0.05131212220468154</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7660807726550025</v>
       </c>
       <c r="E68" t="n">
-        <v>1.326461443090479</v>
+        <v>1.372180402487779</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.883715926381605</v>
+        <v>-1.891170480940085</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06307004504079769</v>
+        <v>-0.05850224155078309</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.776268117571956</v>
       </c>
       <c r="E69" t="n">
-        <v>1.224082517383718</v>
+        <v>1.267759973980691</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.905332717983988</v>
+        <v>-1.912494504985906</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08531880532038291</v>
+        <v>-0.08084544297764636</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7798448247127033</v>
       </c>
       <c r="E70" t="n">
-        <v>1.239334762669122</v>
+        <v>1.284926226517596</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.911419449926058</v>
+        <v>-1.91721892337849</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05474190986999575</v>
+        <v>-0.0493839487810882</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7749844073219865</v>
       </c>
       <c r="E71" t="n">
-        <v>1.232144643323021</v>
+        <v>1.277772309611285</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.946538964560519</v>
+        <v>-1.951335787832683</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07462491941026603</v>
+        <v>-0.06895215449709835</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7615991992895375</v>
       </c>
       <c r="E72" t="n">
-        <v>1.21556549991836</v>
+        <v>1.26161028127377</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.976180105643293</v>
+        <v>-1.980607821431511</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.10917936118018</v>
+        <v>-0.1041944426230208</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7407285624282988</v>
       </c>
       <c r="E73" t="n">
-        <v>1.22012700733189</v>
+        <v>1.266628254232476</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.976141542174821</v>
+        <v>-1.980248158062294</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09674461012190459</v>
+        <v>-0.09140711128157397</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.713916681367012</v>
       </c>
       <c r="E74" t="n">
-        <v>1.214413317921568</v>
+        <v>1.261522136202977</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.984689253013044</v>
+        <v>-1.987993906158215</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07824201535101501</v>
+        <v>-0.0720309358983625</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.682620899554118</v>
       </c>
       <c r="E75" t="n">
-        <v>1.159923923980381</v>
+        <v>1.205397336394758</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.017435146812584</v>
+        <v>-2.020718550699617</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.05060381360009623</v>
+        <v>-0.0438858999903849</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6480478659761838</v>
       </c>
       <c r="E76" t="n">
-        <v>1.195580179135206</v>
+        <v>1.240913503847787</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.021497690164661</v>
+        <v>-2.023717844135255</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.03108125443860381</v>
+        <v>-0.02380299002170943</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6108665873714044</v>
       </c>
       <c r="E77" t="n">
-        <v>1.132002398787628</v>
+        <v>1.175062839889051</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.019053238469281</v>
+        <v>-2.021153766986656</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03240343050049638</v>
+        <v>-0.0255674654566875</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5713847176457286</v>
       </c>
       <c r="E78" t="n">
-        <v>1.152703898270975</v>
+        <v>1.194440589291384</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.029828186364145</v>
+        <v>-2.031692612013325</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0271808350560207</v>
+        <v>-0.02036533226078872</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5289607727983637</v>
       </c>
       <c r="E79" t="n">
-        <v>1.140242388887637</v>
+        <v>1.179852580075169</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.006574414875609</v>
+        <v>-2.00859702944648</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04840018683027528</v>
+        <v>-0.04221429168356357</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4829772689934471</v>
       </c>
       <c r="E80" t="n">
-        <v>1.121931824449546</v>
+        <v>1.157588079604371</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.968750735390753</v>
+        <v>-1.970443592955712</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03204612815996113</v>
+        <v>-0.02590115751040324</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4332513460530598</v>
       </c>
       <c r="E81" t="n">
-        <v>1.148359605496185</v>
+        <v>1.181450209483289</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.922450962937694</v>
+        <v>-1.923507916777647</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01205451130032109</v>
+        <v>-0.006126755289502702</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3802484985346435</v>
       </c>
       <c r="E82" t="n">
-        <v>1.207871694453443</v>
+        <v>1.239920297782246</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.949411549456892</v>
+        <v>-1.952297513515797</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01545462088265103</v>
+        <v>0.02175699344433898</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3241222837284611</v>
       </c>
       <c r="E83" t="n">
-        <v>1.296040375533101</v>
+        <v>1.326149787304462</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.845323238984399</v>
+        <v>-1.847339557478785</v>
       </c>
       <c r="G83" t="n">
-        <v>0.008631247991812547</v>
+        <v>0.01390421204816985</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2658188180340787</v>
       </c>
       <c r="E84" t="n">
-        <v>1.293366117046011</v>
+        <v>1.318939205709783</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.78403014739139</v>
+        <v>-1.786733525232224</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01938809466678145</v>
+        <v>0.02427227600017748</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2065867957353962</v>
       </c>
       <c r="E85" t="n">
-        <v>1.403753652041949</v>
+        <v>1.427118391878537</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.754863573073688</v>
+        <v>-1.75941563637249</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0137908826714362</v>
+        <v>0.01778574320129735</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1480175151994663</v>
       </c>
       <c r="E86" t="n">
-        <v>1.648804818941647</v>
+        <v>1.672048359305894</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.6502731505015</v>
+        <v>-1.655121916404667</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03012605311229474</v>
+        <v>0.033456677572967</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09202606532202727</v>
       </c>
       <c r="E87" t="n">
-        <v>1.587695100576269</v>
+        <v>1.604022400921521</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.52981504116748</v>
+        <v>-1.535659374164869</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05117855885969144</v>
+        <v>0.05417549126664795</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.04205742878332585</v>
       </c>
       <c r="E88" t="n">
-        <v>1.735459293626614</v>
+        <v>1.751156986323345</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.330607181175665</v>
+        <v>-1.335612561981401</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0879224612273347</v>
+        <v>0.09081865641052796</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.001669857423106044</v>
       </c>
       <c r="E89" t="n">
-        <v>1.903466946596007</v>
+        <v>1.918143100883014</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.156258592176112</v>
+        <v>-1.160378587226117</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1116649656530343</v>
+        <v>0.1145170883008311</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02619993392962566</v>
       </c>
       <c r="E90" t="n">
-        <v>1.926773447725106</v>
+        <v>1.937870282530276</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.91675662968856</v>
+        <v>-0.9197260167608937</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1404175729418339</v>
+        <v>0.1433767288898792</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03913666240559616</v>
       </c>
       <c r="E91" t="n">
-        <v>1.96586578662173</v>
+        <v>1.975878122252323</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6653291113284734</v>
+        <v>-0.6674083905877115</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09460417239725612</v>
+        <v>0.0959342185547552</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03542294845821394</v>
       </c>
       <c r="E92" t="n">
-        <v>1.981248675494201</v>
+        <v>1.991704884517002</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4601620149434139</v>
+        <v>-0.4620854663096434</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1056049920360266</v>
+        <v>0.1073065067061527</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.01506574158824393</v>
       </c>
       <c r="E93" t="n">
-        <v>1.954852374829989</v>
+        <v>1.965025260410955</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2401393260915186</v>
+        <v>-0.2411293841188167</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09108623966114908</v>
+        <v>0.09232814074785532</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01890075723249335</v>
       </c>
       <c r="E94" t="n">
-        <v>1.843013594204211</v>
+        <v>1.852021705635415</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05719895371834612</v>
+        <v>-0.05800485150845207</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06590980381594458</v>
+        <v>0.06700689514349116</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06037750252039131</v>
       </c>
       <c r="E95" t="n">
-        <v>1.792144444242015</v>
+        <v>1.800513503909971</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07441737716657479</v>
+        <v>0.07300548201476807</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05307682591998007</v>
+        <v>0.0547468602076801</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1018671884720614</v>
       </c>
       <c r="E96" t="n">
-        <v>1.664692967952056</v>
+        <v>1.672183724950326</v>
       </c>
       <c r="F96" t="n">
-        <v>0.147809166735462</v>
+        <v>0.146102930007972</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005898522516914102</v>
+        <v>-0.005028089942834822</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1367781039400083</v>
       </c>
       <c r="E97" t="n">
-        <v>1.500746284315619</v>
+        <v>1.505679260241775</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1530742606962128</v>
+        <v>0.1496665092985968</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02115391584056037</v>
+        <v>-0.02023311465459946</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1636140258092484</v>
       </c>
       <c r="E98" t="n">
-        <v>1.387777357960747</v>
+        <v>1.391802124853913</v>
       </c>
       <c r="F98" t="n">
-        <v>0.18081949574738</v>
+        <v>0.1778603397993347</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0594529491000487</v>
+        <v>-0.0582960450458927</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1853459947240575</v>
       </c>
       <c r="E99" t="n">
-        <v>1.249342376242352</v>
+        <v>1.251582205451963</v>
       </c>
       <c r="F99" t="n">
-        <v>0.184049382984289</v>
+        <v>0.1807785712502262</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09872472617650087</v>
+        <v>-0.0981203028339214</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.209041092342331</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091142436417784</v>
+        <v>1.091998702819771</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2385340548681123</v>
+        <v>0.2374448336361722</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1453550426450337</v>
+        <v>-0.145534480824862</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2349962705116647</v>
       </c>
       <c r="E101" t="n">
-        <v>0.911556298792103</v>
+        <v>0.9092298985308206</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2209443911875771</v>
+        <v>0.2193562058941847</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1710776631253296</v>
+        <v>-0.1712555272860365</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.265283719650438</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8508888797998105</v>
+        <v>0.8496894772293795</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2584375266569595</v>
+        <v>0.257864583696806</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2089170828013981</v>
+        <v>-0.2093467900215132</v>
       </c>
     </row>
   </sheetData>
